--- a/CodeSystem-be-marketingauthorization-cs.xlsx
+++ b/CodeSystem-be-marketingauthorization-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T15:29:00+00:00</t>
+    <t>2022-01-27T15:35:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-marketingauthorization-cs.xlsx
+++ b/CodeSystem-be-marketingauthorization-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T15:35:43+00:00</t>
+    <t>2022-01-27T16:48:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -66,7 +66,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Codes for ingredient</t>
+    <t>Codes for Marketing Authorization</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/CodeSystem-be-marketingauthorization-cs.xlsx
+++ b/CodeSystem-be-marketingauthorization-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T16:48:37+00:00</t>
+    <t>2022-01-27T17:34:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-marketingauthorization-cs.xlsx
+++ b/CodeSystem-be-marketingauthorization-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T17:34:32+00:00</t>
+    <t>2022-01-27T17:42:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-marketingauthorization-cs.xlsx
+++ b/CodeSystem-be-marketingauthorization-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T17:42:33+00:00</t>
+    <t>2022-01-27T17:55:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-marketingauthorization-cs.xlsx
+++ b/CodeSystem-be-marketingauthorization-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-27T17:55:49+00:00</t>
+    <t>2022-01-28T08:56:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-marketingauthorization-cs.xlsx
+++ b/CodeSystem-be-marketingauthorization-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-28T08:56:12+00:00</t>
+    <t>2022-01-28T10:40:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-marketingauthorization-cs.xlsx
+++ b/CodeSystem-be-marketingauthorization-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-28T10:40:14+00:00</t>
+    <t>2022-01-28T10:43:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-marketingauthorization-cs.xlsx
+++ b/CodeSystem-be-marketingauthorization-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-28T10:43:57+00:00</t>
+    <t>2022-01-28T10:49:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-marketingauthorization-cs.xlsx
+++ b/CodeSystem-be-marketingauthorization-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-28T10:49:11+00:00</t>
+    <t>2022-01-28T10:53:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-marketingauthorization-cs.xlsx
+++ b/CodeSystem-be-marketingauthorization-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-28T10:53:33+00:00</t>
+    <t>2022-02-02T15:40:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-be-marketingauthorization-cs.xlsx
+++ b/CodeSystem-be-marketingauthorization-cs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-02T15:40:24+00:00</t>
+    <t>2022-02-03T09:51:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -102,25 +102,34 @@
     <t>Count</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Display</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
     <t>000001</t>
   </si>
   <si>
-    <t>Authorization</t>
+    <t>ABCD0123</t>
+  </si>
+  <si>
+    <t>000002</t>
+  </si>
+  <si>
+    <t>XDFG9876</t>
   </si>
 </sst>
 </file>
@@ -411,7 +420,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -433,15 +442,27 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
         <v>34</v>
       </c>
-      <c r="C2" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="D2" s="2"/>
+      <c r="B3" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="D3" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
